--- a/public/uploads/media/default/sample_cash_invoices.xlsx
+++ b/public/uploads/media/default/sample_cash_invoices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamedjagne\Desktop\Mohamed\Projects\sahardid1\public\uploads\media\default\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahaf\Desktop\Mohamed\Sahafintech\new-ekstrabooks\public\uploads\media\default\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE10FB12-FC59-41E3-859C-57AD89FFFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F77867-4E0C-44B4-A6DC-CCC2106B3CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>customer_name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Cash Invoice</t>
+  </si>
+  <si>
+    <t>exchange_rate</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,18 +425,19 @@
     <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,34 +454,37 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -494,27 +501,30 @@
         <v>16</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
     </row>
